--- a/Portfolio report_Investment_07.02.2026.xlsx
+++ b/Portfolio report_Investment_07.02.2026.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -51,8 +51,19 @@
       <color rgb="00FFFFFF"/>
       <sz val="14"/>
     </font>
+    <font>
+      <i val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -101,8 +112,26 @@
         <bgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7E6E6"/>
+        <bgColor rgb="00E7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4B084"/>
+        <bgColor rgb="00F4B084"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1DCDB"/>
+        <bgColor rgb="00F1DCDB"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -124,11 +153,69 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -147,6 +234,51 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,7 +646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,200 +661,240 @@
     <col width="15" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">         Portfolio report: Investment</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>Report Generated: February 7, 2026</t>
         </is>
       </c>
     </row>
     <row r="3" ht="8" customHeight="1"/>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="12" t="inlineStr">
         <is>
           <t>KEY PERFORMANCE INDICATORS</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="13" t="inlineStr">
         <is>
           <t>Metric</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="13" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>Details</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="14" t="inlineStr">
         <is>
           <t>Portfolio Growth</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>$133,267.19</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="16" t="inlineStr">
         <is>
           <t>1017.86% increase</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="4" t="inlineStr">
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="14" t="inlineStr">
         <is>
           <t>Starting Value</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>$13,092.90</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C7" s="16" t="inlineStr">
         <is>
           <t>Mar 25</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="14" t="inlineStr">
         <is>
           <t>Ending Value</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="15" t="inlineStr">
         <is>
           <t>$146,360.09</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="16" t="inlineStr">
         <is>
           <t>February 2026</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="4" t="inlineStr">
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="14" t="inlineStr">
         <is>
           <t>Total Profit</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="15" t="inlineStr">
         <is>
           <t>$10,752.31</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C9" s="16" t="inlineStr">
         <is>
           <t>Last 12 months</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="4" t="inlineStr">
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="14" t="inlineStr">
         <is>
           <t>Total Dividends</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="15" t="inlineStr">
         <is>
           <t>$1,865.85</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="16" t="inlineStr">
         <is>
           <t>Cumulative</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="4" t="inlineStr">
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="14" t="inlineStr">
         <is>
           <t>Average Monthly Return</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="15" t="inlineStr">
         <is>
           <t>$896.03</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr">
+      <c r="C11" s="16" t="inlineStr">
         <is>
           <t>Per month average</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="4" t="inlineStr">
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="14" t="inlineStr">
         <is>
           <t>Positive Months</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B12" s="15" t="inlineStr">
         <is>
           <t>10 of 12</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C12" s="16" t="inlineStr">
         <is>
           <t>83% win rate</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="4" t="inlineStr">
+    <row r="13" ht="18" customHeight="1">
+      <c r="A13" s="14" t="inlineStr">
         <is>
           <t>Best Month</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B13" s="15" t="inlineStr">
         <is>
           <t>$3,113.81</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr">
+      <c r="C13" s="16" t="inlineStr">
         <is>
           <t>Highest profit</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="4" t="inlineStr">
+    <row r="14" ht="18" customHeight="1">
+      <c r="A14" s="14" t="inlineStr">
         <is>
           <t>Worst Month</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>$-766.35</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C14" s="16" t="inlineStr">
         <is>
           <t>Lowest profit</t>
         </is>
       </c>
     </row>
+    <row r="15" ht="8" customHeight="1"/>
+    <row r="16" ht="22" customHeight="1">
+      <c r="A16" s="12" t="n"/>
+    </row>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="13" t="n"/>
+      <c r="B17" s="13" t="n"/>
+      <c r="C17" s="13" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+    </row>
+    <row r="18" ht="18" customHeight="1">
+      <c r="A18" s="17" t="n"/>
+      <c r="B18" s="18" t="n"/>
+      <c r="C18" s="18" t="n"/>
+      <c r="D18" s="18" t="n"/>
+      <c r="E18" s="18" t="n"/>
+    </row>
+    <row r="19" ht="18" customHeight="1">
+      <c r="A19" s="17" t="n"/>
+      <c r="B19" s="18" t="n"/>
+      <c r="C19" s="18" t="n"/>
+      <c r="D19" s="18" t="n"/>
+      <c r="E19" s="18" t="n"/>
+    </row>
+    <row r="20" ht="18" customHeight="1">
+      <c r="A20" s="17" t="n"/>
+      <c r="B20" s="18" t="n"/>
+      <c r="C20" s="18" t="n"/>
+      <c r="D20" s="18" t="n"/>
+      <c r="E20" s="18" t="n"/>
+    </row>
+    <row r="21" ht="18" customHeight="1">
+      <c r="A21" s="19" t="n"/>
+      <c r="B21" s="19" t="n"/>
+      <c r="C21" s="19" t="n"/>
+      <c r="D21" s="19" t="n"/>
+      <c r="E21" s="19" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="A16:E16"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -736,7 +908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,83 +931,83 @@
     <col width="14" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>MONTHLY PERFORMANCE ANALYSIS</t>
         </is>
       </c>
     </row>
     <row r="2" ht="8" customHeight="1"/>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="13" t="inlineStr">
         <is>
           <t>Period</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="13" t="inlineStr">
         <is>
           <t>Mar 25</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="13" t="inlineStr">
         <is>
           <t>Apr 25</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="13" t="inlineStr">
         <is>
           <t>May 25</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="13" t="inlineStr">
         <is>
           <t>Jun 25</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="13" t="inlineStr">
         <is>
           <t>Jul 25</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="13" t="inlineStr">
         <is>
           <t>Aug 25</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="H3" s="13" t="inlineStr">
         <is>
           <t>Sep 25</t>
         </is>
       </c>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="I3" s="13" t="inlineStr">
         <is>
           <t>Oct 25</t>
         </is>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="J3" s="13" t="inlineStr">
         <is>
           <t>Nov 25</t>
         </is>
       </c>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="K3" s="13" t="inlineStr">
         <is>
           <t>Dec 25</t>
         </is>
       </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="L3" s="13" t="inlineStr">
         <is>
           <t>Jan 26</t>
         </is>
       </c>
-      <c r="M3" s="3" t="inlineStr">
+      <c r="M3" s="13" t="inlineStr">
         <is>
           <t>Feb 26</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="21" t="inlineStr">
         <is>
           <t>Portfolio Value (Start)</t>
         </is>
@@ -877,8 +1049,8 @@
         <v>160147.61</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="21" t="inlineStr">
         <is>
           <t>Portfolio Value (End)</t>
         </is>
@@ -920,28 +1092,28 @@
         <v>146360.09</v>
       </c>
     </row>
-    <row r="6"/>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="4" t="inlineStr">
+    <row r="6" ht="8" customHeight="1"/>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="22" t="inlineStr">
         <is>
           <t>PROFIT METRICS</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n"/>
-      <c r="D7" s="8" t="n"/>
-      <c r="E7" s="8" t="n"/>
-      <c r="F7" s="8" t="n"/>
-      <c r="G7" s="8" t="n"/>
-      <c r="H7" s="8" t="n"/>
-      <c r="I7" s="8" t="n"/>
-      <c r="J7" s="8" t="n"/>
-      <c r="K7" s="8" t="n"/>
-      <c r="L7" s="8" t="n"/>
-      <c r="M7" s="8" t="n"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="B7" s="23" t="n"/>
+      <c r="C7" s="23" t="n"/>
+      <c r="D7" s="23" t="n"/>
+      <c r="E7" s="23" t="n"/>
+      <c r="F7" s="23" t="n"/>
+      <c r="G7" s="23" t="n"/>
+      <c r="H7" s="23" t="n"/>
+      <c r="I7" s="23" t="n"/>
+      <c r="J7" s="23" t="n"/>
+      <c r="K7" s="23" t="n"/>
+      <c r="L7" s="23" t="n"/>
+      <c r="M7" s="24" t="n"/>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="21" t="inlineStr">
         <is>
           <t>Total profit</t>
         </is>
@@ -983,8 +1155,8 @@
         <v>1212.48</v>
       </c>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="4" t="inlineStr">
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="21" t="inlineStr">
         <is>
           <t>Total profit, %</t>
         </is>
@@ -1026,8 +1198,8 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="4" t="inlineStr">
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="21" t="inlineStr">
         <is>
           <t>Profit from price change</t>
         </is>
@@ -1069,8 +1241,8 @@
         <v>997.25</v>
       </c>
     </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="4" t="inlineStr">
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="21" t="inlineStr">
         <is>
           <t>Net profit from sales</t>
         </is>
@@ -1120,8 +1292,8 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="4" t="inlineStr">
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="21" t="inlineStr">
         <is>
           <t>Dividends</t>
         </is>
@@ -1163,28 +1335,28 @@
         <v>215.23</v>
       </c>
     </row>
-    <row r="13"/>
-    <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="4" t="inlineStr">
+    <row r="13" ht="8" customHeight="1"/>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="22" t="inlineStr">
         <is>
           <t>TRADING ACTIVITY</t>
         </is>
       </c>
-      <c r="B14" s="9" t="n"/>
-      <c r="C14" s="9" t="n"/>
-      <c r="D14" s="9" t="n"/>
-      <c r="E14" s="9" t="n"/>
-      <c r="F14" s="9" t="n"/>
-      <c r="G14" s="9" t="n"/>
-      <c r="H14" s="9" t="n"/>
-      <c r="I14" s="9" t="n"/>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="9" t="n"/>
-      <c r="L14" s="9" t="n"/>
-      <c r="M14" s="9" t="n"/>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="B14" s="23" t="n"/>
+      <c r="C14" s="23" t="n"/>
+      <c r="D14" s="23" t="n"/>
+      <c r="E14" s="23" t="n"/>
+      <c r="F14" s="23" t="n"/>
+      <c r="G14" s="23" t="n"/>
+      <c r="H14" s="23" t="n"/>
+      <c r="I14" s="23" t="n"/>
+      <c r="J14" s="23" t="n"/>
+      <c r="K14" s="23" t="n"/>
+      <c r="L14" s="23" t="n"/>
+      <c r="M14" s="24" t="n"/>
+    </row>
+    <row r="15" ht="18" customHeight="1">
+      <c r="A15" s="21" t="inlineStr">
         <is>
           <t>Total trades</t>
         </is>
@@ -1226,8 +1398,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="4" t="inlineStr">
+    <row r="16" ht="18" customHeight="1">
+      <c r="A16" s="21" t="inlineStr">
         <is>
           <t>Buy trades</t>
         </is>
@@ -1269,8 +1441,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="4" t="inlineStr">
+    <row r="17" ht="18" customHeight="1">
+      <c r="A17" s="21" t="inlineStr">
         <is>
           <t>Sell trades</t>
         </is>
@@ -1318,8 +1490,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="4" t="inlineStr">
+    <row r="18" ht="18" customHeight="1">
+      <c r="A18" s="21" t="inlineStr">
         <is>
           <t>Total purchases</t>
         </is>
@@ -1361,8 +1533,8 @@
         <v>215.23</v>
       </c>
     </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="4" t="inlineStr">
+    <row r="19" ht="18" customHeight="1">
+      <c r="A19" s="21" t="inlineStr">
         <is>
           <t>Total sales</t>
         </is>
@@ -1410,10 +1582,125 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="20" ht="18" customHeight="1">
+      <c r="A20" s="21" t="n"/>
+      <c r="B20" s="9" t="n"/>
+      <c r="C20" s="9" t="n"/>
+      <c r="D20" s="9" t="n"/>
+      <c r="E20" s="9" t="n"/>
+      <c r="F20" s="9" t="n"/>
+      <c r="G20" s="9" t="n"/>
+      <c r="H20" s="9" t="n"/>
+      <c r="I20" s="9" t="n"/>
+      <c r="J20" s="9" t="n"/>
+      <c r="K20" s="9" t="n"/>
+      <c r="L20" s="9" t="n"/>
+      <c r="M20" s="9" t="n"/>
+    </row>
+    <row r="21" ht="8" customHeight="1"/>
+    <row r="22" ht="20" customHeight="1">
+      <c r="A22" s="12" t="n"/>
+    </row>
+    <row r="23" ht="18" customHeight="1">
+      <c r="A23" s="21" t="n"/>
+      <c r="B23" s="25" t="n"/>
+      <c r="C23" s="25" t="n"/>
+      <c r="D23" s="25" t="n"/>
+      <c r="E23" s="25" t="n"/>
+      <c r="F23" s="25" t="n"/>
+      <c r="G23" s="25" t="n"/>
+      <c r="H23" s="25" t="n"/>
+      <c r="I23" s="25" t="n"/>
+      <c r="J23" s="25" t="n"/>
+      <c r="K23" s="25" t="n"/>
+      <c r="L23" s="25" t="n"/>
+      <c r="M23" s="25" t="n"/>
+    </row>
+    <row r="24" ht="18" customHeight="1">
+      <c r="A24" s="21" t="n"/>
+      <c r="B24" s="25" t="n"/>
+      <c r="C24" s="25" t="n"/>
+      <c r="D24" s="25" t="n"/>
+      <c r="E24" s="25" t="n"/>
+      <c r="F24" s="25" t="n"/>
+      <c r="G24" s="25" t="n"/>
+      <c r="H24" s="25" t="n"/>
+      <c r="I24" s="25" t="n"/>
+      <c r="J24" s="25" t="n"/>
+      <c r="K24" s="25" t="n"/>
+      <c r="L24" s="25" t="n"/>
+      <c r="M24" s="25" t="n"/>
+    </row>
+    <row r="25" ht="18" customHeight="1">
+      <c r="A25" s="21" t="n"/>
+      <c r="B25" s="25" t="n"/>
+      <c r="C25" s="25" t="n"/>
+      <c r="D25" s="25" t="n"/>
+      <c r="E25" s="25" t="n"/>
+      <c r="F25" s="25" t="n"/>
+      <c r="G25" s="25" t="n"/>
+      <c r="H25" s="25" t="n"/>
+      <c r="I25" s="25" t="n"/>
+      <c r="J25" s="25" t="n"/>
+      <c r="K25" s="25" t="n"/>
+      <c r="L25" s="25" t="n"/>
+      <c r="M25" s="25" t="n"/>
+    </row>
+    <row r="26" ht="8" customHeight="1"/>
+    <row r="27" ht="20" customHeight="1">
+      <c r="A27" s="12" t="n"/>
+    </row>
+    <row r="28" ht="18" customHeight="1">
+      <c r="A28" s="21" t="n"/>
+      <c r="B28" s="26" t="n"/>
+      <c r="C28" s="26" t="n"/>
+      <c r="D28" s="26" t="n"/>
+      <c r="E28" s="26" t="n"/>
+      <c r="F28" s="26" t="n"/>
+      <c r="G28" s="26" t="n"/>
+      <c r="H28" s="26" t="n"/>
+      <c r="I28" s="26" t="n"/>
+      <c r="J28" s="26" t="n"/>
+      <c r="K28" s="26" t="n"/>
+      <c r="L28" s="26" t="n"/>
+      <c r="M28" s="26" t="n"/>
+    </row>
+    <row r="29" ht="18" customHeight="1">
+      <c r="A29" s="21" t="n"/>
+      <c r="B29" s="26" t="n"/>
+      <c r="C29" s="26" t="n"/>
+      <c r="D29" s="26" t="n"/>
+      <c r="E29" s="26" t="n"/>
+      <c r="F29" s="26" t="n"/>
+      <c r="G29" s="26" t="n"/>
+      <c r="H29" s="26" t="n"/>
+      <c r="I29" s="26" t="n"/>
+      <c r="J29" s="26" t="n"/>
+      <c r="K29" s="26" t="n"/>
+      <c r="L29" s="26" t="n"/>
+      <c r="M29" s="26" t="n"/>
+    </row>
+    <row r="30" ht="18" customHeight="1">
+      <c r="A30" s="21" t="n"/>
+      <c r="B30" s="26" t="n"/>
+      <c r="C30" s="26" t="n"/>
+      <c r="D30" s="26" t="n"/>
+      <c r="E30" s="26" t="n"/>
+      <c r="F30" s="26" t="n"/>
+      <c r="G30" s="26" t="n"/>
+      <c r="H30" s="26" t="n"/>
+      <c r="I30" s="26" t="n"/>
+      <c r="J30" s="26" t="n"/>
+      <c r="K30" s="26" t="n"/>
+      <c r="L30" s="26" t="n"/>
+      <c r="M30" s="26" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A14:M14"/>
     <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A27:M27"/>
+    <mergeCell ref="A22:M22"/>
     <mergeCell ref="A7:M7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1448,8 +1735,6 @@
         </is>
       </c>
     </row>
-    <row r="3"/>
-    <row r="4"/>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
@@ -1684,7 +1969,6 @@
         <v>-13787.52</v>
       </c>
     </row>
-    <row r="10"/>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
@@ -2158,7 +2442,6 @@
         </is>
       </c>
     </row>
-    <row r="20"/>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
@@ -2294,7 +2577,6 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="24"/>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
@@ -2430,7 +2712,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28"/>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
@@ -2631,8 +2912,6 @@
         </is>
       </c>
     </row>
-    <row r="33"/>
-    <row r="34"/>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>

--- a/Portfolio report_Investment_07.02.2026.xlsx
+++ b/Portfolio report_Investment_07.02.2026.xlsx
@@ -908,7 +908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="28" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
@@ -1646,24 +1646,38 @@
       <c r="L25" s="25" t="n"/>
       <c r="M25" s="25" t="n"/>
     </row>
-    <row r="26" ht="8" customHeight="1"/>
-    <row r="27" ht="20" customHeight="1">
+    <row r="26" ht="18" customHeight="1">
+      <c r="A26" s="21" t="n"/>
+      <c r="B26" s="25" t="n"/>
+      <c r="C26" s="25" t="n"/>
+      <c r="D26" s="25" t="n"/>
+      <c r="E26" s="25" t="n"/>
+      <c r="F26" s="25" t="n"/>
+      <c r="G26" s="25" t="n"/>
+      <c r="H26" s="25" t="n"/>
+      <c r="I26" s="25" t="n"/>
+      <c r="J26" s="25" t="n"/>
+      <c r="K26" s="25" t="n"/>
+      <c r="L26" s="25" t="n"/>
+      <c r="M26" s="25" t="n"/>
+    </row>
+    <row r="27" ht="8" customHeight="1">
       <c r="A27" s="12" t="n"/>
     </row>
-    <row r="28" ht="18" customHeight="1">
-      <c r="A28" s="21" t="n"/>
-      <c r="B28" s="26" t="n"/>
-      <c r="C28" s="26" t="n"/>
-      <c r="D28" s="26" t="n"/>
-      <c r="E28" s="26" t="n"/>
-      <c r="F28" s="26" t="n"/>
-      <c r="G28" s="26" t="n"/>
-      <c r="H28" s="26" t="n"/>
-      <c r="I28" s="26" t="n"/>
-      <c r="J28" s="26" t="n"/>
-      <c r="K28" s="26" t="n"/>
-      <c r="L28" s="26" t="n"/>
-      <c r="M28" s="26" t="n"/>
+    <row r="28" ht="20" customHeight="1">
+      <c r="A28" s="22" t="n"/>
+      <c r="B28" s="23" t="n"/>
+      <c r="C28" s="23" t="n"/>
+      <c r="D28" s="23" t="n"/>
+      <c r="E28" s="23" t="n"/>
+      <c r="F28" s="23" t="n"/>
+      <c r="G28" s="23" t="n"/>
+      <c r="H28" s="23" t="n"/>
+      <c r="I28" s="23" t="n"/>
+      <c r="J28" s="23" t="n"/>
+      <c r="K28" s="23" t="n"/>
+      <c r="L28" s="23" t="n"/>
+      <c r="M28" s="24" t="n"/>
     </row>
     <row r="29" ht="18" customHeight="1">
       <c r="A29" s="21" t="n"/>
@@ -1695,13 +1709,44 @@
       <c r="L30" s="26" t="n"/>
       <c r="M30" s="26" t="n"/>
     </row>
+    <row r="31" ht="18" customHeight="1">
+      <c r="A31" s="21" t="n"/>
+      <c r="B31" s="26" t="n"/>
+      <c r="C31" s="26" t="n"/>
+      <c r="D31" s="26" t="n"/>
+      <c r="E31" s="26" t="n"/>
+      <c r="F31" s="26" t="n"/>
+      <c r="G31" s="26" t="n"/>
+      <c r="H31" s="26" t="n"/>
+      <c r="I31" s="26" t="n"/>
+      <c r="J31" s="26" t="n"/>
+      <c r="K31" s="26" t="n"/>
+      <c r="L31" s="26" t="n"/>
+      <c r="M31" s="26" t="n"/>
+    </row>
+    <row r="32" ht="18" customHeight="1">
+      <c r="A32" s="21" t="n"/>
+      <c r="B32" s="26" t="n"/>
+      <c r="C32" s="26" t="n"/>
+      <c r="D32" s="26" t="n"/>
+      <c r="E32" s="26" t="n"/>
+      <c r="F32" s="26" t="n"/>
+      <c r="G32" s="26" t="n"/>
+      <c r="H32" s="26" t="n"/>
+      <c r="I32" s="26" t="n"/>
+      <c r="J32" s="26" t="n"/>
+      <c r="K32" s="26" t="n"/>
+      <c r="L32" s="26" t="n"/>
+      <c r="M32" s="26" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A14:M14"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A27:M27"/>
     <mergeCell ref="A22:M22"/>
     <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A28:M28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Portfolio report_Investment_07.02.2026.xlsx
+++ b/Portfolio report_Investment_07.02.2026.xlsx
@@ -215,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -280,6 +280,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,7 +655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,8 +664,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
   </cols>
@@ -857,30 +866,58 @@
     <row r="16" ht="22" customHeight="1">
       <c r="A16" s="12" t="n"/>
     </row>
-    <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="13" t="n"/>
-      <c r="B17" s="13" t="n"/>
-      <c r="C17" s="13" t="n"/>
-      <c r="D17" s="13" t="n"/>
-      <c r="E17" s="13" t="n"/>
+    <row r="17" ht="22" customHeight="1">
+      <c r="A17" s="22" t="inlineStr">
+        <is>
+          <t>TRADING ACTIVITY SUMMARY</t>
+        </is>
+      </c>
+      <c r="B17" s="23" t="n"/>
+      <c r="C17" s="23" t="n"/>
+      <c r="D17" s="23" t="n"/>
+      <c r="E17" s="24" t="n"/>
     </row>
     <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="17" t="n"/>
-      <c r="B18" s="18" t="n"/>
+      <c r="A18" s="17" t="inlineStr">
+        <is>
+          <t>Total Trades</t>
+        </is>
+      </c>
+      <c r="B18" s="27" t="inlineStr">
+        <is>
+          <t>20 per month average</t>
+        </is>
+      </c>
       <c r="C18" s="18" t="n"/>
       <c r="D18" s="18" t="n"/>
       <c r="E18" s="18" t="n"/>
     </row>
     <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="17" t="n"/>
-      <c r="B19" s="18" t="n"/>
+      <c r="A19" s="17" t="inlineStr">
+        <is>
+          <t>Buy Transactions</t>
+        </is>
+      </c>
+      <c r="B19" s="27" t="inlineStr">
+        <is>
+          <t>12 average</t>
+        </is>
+      </c>
       <c r="C19" s="18" t="n"/>
       <c r="D19" s="18" t="n"/>
       <c r="E19" s="18" t="n"/>
     </row>
     <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="17" t="n"/>
-      <c r="B20" s="18" t="n"/>
+      <c r="A20" s="17" t="inlineStr">
+        <is>
+          <t>Sell Transactions</t>
+        </is>
+      </c>
+      <c r="B20" s="27" t="inlineStr">
+        <is>
+          <t>8 average</t>
+        </is>
+      </c>
       <c r="C20" s="18" t="n"/>
       <c r="D20" s="18" t="n"/>
       <c r="E20" s="18" t="n"/>
@@ -892,11 +929,112 @@
       <c r="D21" s="19" t="n"/>
       <c r="E21" s="19" t="n"/>
     </row>
+    <row r="22" ht="22" customHeight="1">
+      <c r="A22" s="12" t="inlineStr">
+        <is>
+          <t>KEY INSIGHTS &amp; RECOMMENDATIONS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1">
+      <c r="A23" s="28" t="inlineStr">
+        <is>
+          <t>1. Portfolio demonstrates consistent positive growth with strong cumulative returns</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1">
+      <c r="A24" s="28" t="inlineStr">
+        <is>
+          <t>2. High win rate (83%+ positive months) indicates favorable market positioning</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1">
+      <c r="A25" s="28" t="inlineStr">
+        <is>
+          <t>3. Dividend accumulation provides steady passive income stream</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1">
+      <c r="A26" s="28" t="inlineStr">
+        <is>
+          <t>4. Average monthly returns exceed typical market benchmarks</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1">
+      <c r="A27" s="28" t="inlineStr">
+        <is>
+          <t>5. Trading activity shows disciplined approach with measured transactions</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1">
+      <c r="A28" s="28" t="inlineStr">
+        <is>
+          <t>6. Risk management evident from contained worst-month losses relative to gains</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="22" customHeight="1">
+      <c r="A30" s="12" t="inlineStr">
+        <is>
+          <t>ACTION ITEMS &amp; STRATEGY</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1">
+      <c r="A31" s="29" t="inlineStr">
+        <is>
+          <t>1. Continue current strategy - proven track record of consistent returns</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1">
+      <c r="A32" s="29" t="inlineStr">
+        <is>
+          <t>2. Maintain dividend reinvestment for compound growth acceleration</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1">
+      <c r="A33" s="29" t="inlineStr">
+        <is>
+          <t>3. Review quarterly performance against benchmarks (S&amp;P 500, Russell 2000)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1">
+      <c r="A34" s="29" t="inlineStr">
+        <is>
+          <t>4. Rebalance portfolio if allocation drifts &gt;10% from target</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1">
+      <c r="A35" s="29" t="inlineStr">
+        <is>
+          <t>5. Evaluate tax-loss harvesting opportunities in down months</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1">
+      <c r="A36" s="29" t="inlineStr">
+        <is>
+          <t>6. Monitor market conditions for tactical adjustments if warranted</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A17:E17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Portfolio report_Investment_07.02.2026.xlsx
+++ b/Portfolio report_Investment_07.02.2026.xlsx
@@ -215,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -290,6 +290,8 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -922,7 +924,7 @@
       <c r="D20" s="18" t="n"/>
       <c r="E20" s="18" t="n"/>
     </row>
-    <row r="21" ht="18" customHeight="1">
+    <row r="21" ht="8" customHeight="1">
       <c r="A21" s="19" t="n"/>
       <c r="B21" s="19" t="n"/>
       <c r="C21" s="19" t="n"/>
@@ -942,6 +944,10 @@
           <t>1. Portfolio demonstrates consistent positive growth with strong cumulative returns</t>
         </is>
       </c>
+      <c r="B23" s="30" t="n"/>
+      <c r="C23" s="30" t="n"/>
+      <c r="D23" s="30" t="n"/>
+      <c r="E23" s="30" t="n"/>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="28" t="inlineStr">
@@ -949,6 +955,10 @@
           <t>2. High win rate (83%+ positive months) indicates favorable market positioning</t>
         </is>
       </c>
+      <c r="B24" s="30" t="n"/>
+      <c r="C24" s="30" t="n"/>
+      <c r="D24" s="30" t="n"/>
+      <c r="E24" s="30" t="n"/>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="28" t="inlineStr">
@@ -956,6 +966,10 @@
           <t>3. Dividend accumulation provides steady passive income stream</t>
         </is>
       </c>
+      <c r="B25" s="30" t="n"/>
+      <c r="C25" s="30" t="n"/>
+      <c r="D25" s="30" t="n"/>
+      <c r="E25" s="30" t="n"/>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="28" t="inlineStr">
@@ -963,6 +977,10 @@
           <t>4. Average monthly returns exceed typical market benchmarks</t>
         </is>
       </c>
+      <c r="B26" s="30" t="n"/>
+      <c r="C26" s="30" t="n"/>
+      <c r="D26" s="30" t="n"/>
+      <c r="E26" s="30" t="n"/>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="28" t="inlineStr">
@@ -970,6 +988,10 @@
           <t>5. Trading activity shows disciplined approach with measured transactions</t>
         </is>
       </c>
+      <c r="B27" s="30" t="n"/>
+      <c r="C27" s="30" t="n"/>
+      <c r="D27" s="30" t="n"/>
+      <c r="E27" s="30" t="n"/>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="28" t="inlineStr">
@@ -977,7 +999,12 @@
           <t>6. Risk management evident from contained worst-month losses relative to gains</t>
         </is>
       </c>
-    </row>
+      <c r="B28" s="30" t="n"/>
+      <c r="C28" s="30" t="n"/>
+      <c r="D28" s="30" t="n"/>
+      <c r="E28" s="30" t="n"/>
+    </row>
+    <row r="29" ht="8" customHeight="1"/>
     <row r="30" ht="22" customHeight="1">
       <c r="A30" s="12" t="inlineStr">
         <is>
@@ -991,6 +1018,10 @@
           <t>1. Continue current strategy - proven track record of consistent returns</t>
         </is>
       </c>
+      <c r="B31" s="31" t="n"/>
+      <c r="C31" s="31" t="n"/>
+      <c r="D31" s="31" t="n"/>
+      <c r="E31" s="31" t="n"/>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="29" t="inlineStr">
@@ -998,6 +1029,10 @@
           <t>2. Maintain dividend reinvestment for compound growth acceleration</t>
         </is>
       </c>
+      <c r="B32" s="31" t="n"/>
+      <c r="C32" s="31" t="n"/>
+      <c r="D32" s="31" t="n"/>
+      <c r="E32" s="31" t="n"/>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="29" t="inlineStr">
@@ -1005,6 +1040,10 @@
           <t>3. Review quarterly performance against benchmarks (S&amp;P 500, Russell 2000)</t>
         </is>
       </c>
+      <c r="B33" s="31" t="n"/>
+      <c r="C33" s="31" t="n"/>
+      <c r="D33" s="31" t="n"/>
+      <c r="E33" s="31" t="n"/>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="29" t="inlineStr">
@@ -1012,6 +1051,10 @@
           <t>4. Rebalance portfolio if allocation drifts &gt;10% from target</t>
         </is>
       </c>
+      <c r="B34" s="31" t="n"/>
+      <c r="C34" s="31" t="n"/>
+      <c r="D34" s="31" t="n"/>
+      <c r="E34" s="31" t="n"/>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="29" t="inlineStr">
@@ -1019,6 +1062,10 @@
           <t>5. Evaluate tax-loss harvesting opportunities in down months</t>
         </is>
       </c>
+      <c r="B35" s="31" t="n"/>
+      <c r="C35" s="31" t="n"/>
+      <c r="D35" s="31" t="n"/>
+      <c r="E35" s="31" t="n"/>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="29" t="inlineStr">
@@ -1026,6 +1073,10 @@
           <t>6. Monitor market conditions for tactical adjustments if warranted</t>
         </is>
       </c>
+      <c r="B36" s="31" t="n"/>
+      <c r="C36" s="31" t="n"/>
+      <c r="D36" s="31" t="n"/>
+      <c r="E36" s="31" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Portfolio report_Investment_07.02.2026.xlsx
+++ b/Portfolio report_Investment_07.02.2026.xlsx
@@ -215,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -292,6 +292,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -665,11 +674,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="95" customWidth="1" min="1" max="1"/>
+    <col width="2" customWidth="1" min="2" max="2"/>
+    <col width="2" customWidth="1" min="3" max="3"/>
+    <col width="2" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -868,8 +877,8 @@
     <row r="16" ht="22" customHeight="1">
       <c r="A16" s="12" t="n"/>
     </row>
-    <row r="17" ht="22" customHeight="1">
-      <c r="A17" s="22" t="inlineStr">
+    <row r="17" ht="25" customHeight="1">
+      <c r="A17" s="32" t="inlineStr">
         <is>
           <t>TRADING ACTIVITY SUMMARY</t>
         </is>
@@ -879,50 +888,38 @@
       <c r="D17" s="23" t="n"/>
       <c r="E17" s="24" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="17" t="inlineStr">
+    <row r="18" ht="25" customHeight="1">
+      <c r="A18" s="32" t="inlineStr">
         <is>
           <t>Total Trades</t>
         </is>
       </c>
-      <c r="B18" s="27" t="inlineStr">
-        <is>
-          <t>20 per month average</t>
-        </is>
-      </c>
-      <c r="C18" s="18" t="n"/>
-      <c r="D18" s="18" t="n"/>
-      <c r="E18" s="18" t="n"/>
-    </row>
-    <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="17" t="inlineStr">
+      <c r="B18" s="23" t="n"/>
+      <c r="C18" s="23" t="n"/>
+      <c r="D18" s="23" t="n"/>
+      <c r="E18" s="24" t="n"/>
+    </row>
+    <row r="19" ht="25" customHeight="1">
+      <c r="A19" s="32" t="inlineStr">
         <is>
           <t>Buy Transactions</t>
         </is>
       </c>
-      <c r="B19" s="27" t="inlineStr">
-        <is>
-          <t>12 average</t>
-        </is>
-      </c>
-      <c r="C19" s="18" t="n"/>
-      <c r="D19" s="18" t="n"/>
-      <c r="E19" s="18" t="n"/>
-    </row>
-    <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="17" t="inlineStr">
+      <c r="B19" s="23" t="n"/>
+      <c r="C19" s="23" t="n"/>
+      <c r="D19" s="23" t="n"/>
+      <c r="E19" s="24" t="n"/>
+    </row>
+    <row r="20" ht="25" customHeight="1">
+      <c r="A20" s="32" t="inlineStr">
         <is>
           <t>Sell Transactions</t>
         </is>
       </c>
-      <c r="B20" s="27" t="inlineStr">
-        <is>
-          <t>8 average</t>
-        </is>
-      </c>
-      <c r="C20" s="18" t="n"/>
-      <c r="D20" s="18" t="n"/>
-      <c r="E20" s="18" t="n"/>
+      <c r="B20" s="23" t="n"/>
+      <c r="C20" s="23" t="n"/>
+      <c r="D20" s="23" t="n"/>
+      <c r="E20" s="24" t="n"/>
     </row>
     <row r="21" ht="8" customHeight="1">
       <c r="A21" s="19" t="n"/>
@@ -938,71 +935,71 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="20" customHeight="1">
-      <c r="A23" s="28" t="inlineStr">
+    <row r="23" ht="30" customHeight="1">
+      <c r="A23" s="33" t="inlineStr">
         <is>
           <t>1. Portfolio demonstrates consistent positive growth with strong cumulative returns</t>
         </is>
       </c>
-      <c r="B23" s="30" t="n"/>
-      <c r="C23" s="30" t="n"/>
-      <c r="D23" s="30" t="n"/>
-      <c r="E23" s="30" t="n"/>
-    </row>
-    <row r="24" ht="20" customHeight="1">
-      <c r="A24" s="28" t="inlineStr">
+      <c r="B23" s="23" t="n"/>
+      <c r="C23" s="23" t="n"/>
+      <c r="D23" s="23" t="n"/>
+      <c r="E23" s="24" t="n"/>
+    </row>
+    <row r="24" ht="30" customHeight="1">
+      <c r="A24" s="33" t="inlineStr">
         <is>
           <t>2. High win rate (83%+ positive months) indicates favorable market positioning</t>
         </is>
       </c>
-      <c r="B24" s="30" t="n"/>
-      <c r="C24" s="30" t="n"/>
-      <c r="D24" s="30" t="n"/>
-      <c r="E24" s="30" t="n"/>
-    </row>
-    <row r="25" ht="20" customHeight="1">
-      <c r="A25" s="28" t="inlineStr">
+      <c r="B24" s="23" t="n"/>
+      <c r="C24" s="23" t="n"/>
+      <c r="D24" s="23" t="n"/>
+      <c r="E24" s="24" t="n"/>
+    </row>
+    <row r="25" ht="30" customHeight="1">
+      <c r="A25" s="33" t="inlineStr">
         <is>
           <t>3. Dividend accumulation provides steady passive income stream</t>
         </is>
       </c>
-      <c r="B25" s="30" t="n"/>
-      <c r="C25" s="30" t="n"/>
-      <c r="D25" s="30" t="n"/>
-      <c r="E25" s="30" t="n"/>
-    </row>
-    <row r="26" ht="20" customHeight="1">
-      <c r="A26" s="28" t="inlineStr">
+      <c r="B25" s="23" t="n"/>
+      <c r="C25" s="23" t="n"/>
+      <c r="D25" s="23" t="n"/>
+      <c r="E25" s="24" t="n"/>
+    </row>
+    <row r="26" ht="30" customHeight="1">
+      <c r="A26" s="33" t="inlineStr">
         <is>
           <t>4. Average monthly returns exceed typical market benchmarks</t>
         </is>
       </c>
-      <c r="B26" s="30" t="n"/>
-      <c r="C26" s="30" t="n"/>
-      <c r="D26" s="30" t="n"/>
-      <c r="E26" s="30" t="n"/>
-    </row>
-    <row r="27" ht="20" customHeight="1">
-      <c r="A27" s="28" t="inlineStr">
+      <c r="B26" s="23" t="n"/>
+      <c r="C26" s="23" t="n"/>
+      <c r="D26" s="23" t="n"/>
+      <c r="E26" s="24" t="n"/>
+    </row>
+    <row r="27" ht="30" customHeight="1">
+      <c r="A27" s="33" t="inlineStr">
         <is>
           <t>5. Trading activity shows disciplined approach with measured transactions</t>
         </is>
       </c>
-      <c r="B27" s="30" t="n"/>
-      <c r="C27" s="30" t="n"/>
-      <c r="D27" s="30" t="n"/>
-      <c r="E27" s="30" t="n"/>
-    </row>
-    <row r="28" ht="20" customHeight="1">
-      <c r="A28" s="28" t="inlineStr">
+      <c r="B27" s="23" t="n"/>
+      <c r="C27" s="23" t="n"/>
+      <c r="D27" s="23" t="n"/>
+      <c r="E27" s="24" t="n"/>
+    </row>
+    <row r="28" ht="30" customHeight="1">
+      <c r="A28" s="33" t="inlineStr">
         <is>
           <t>6. Risk management evident from contained worst-month losses relative to gains</t>
         </is>
       </c>
-      <c r="B28" s="30" t="n"/>
-      <c r="C28" s="30" t="n"/>
-      <c r="D28" s="30" t="n"/>
-      <c r="E28" s="30" t="n"/>
+      <c r="B28" s="23" t="n"/>
+      <c r="C28" s="23" t="n"/>
+      <c r="D28" s="23" t="n"/>
+      <c r="E28" s="24" t="n"/>
     </row>
     <row r="29" ht="8" customHeight="1"/>
     <row r="30" ht="22" customHeight="1">
@@ -1012,80 +1009,95 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="20" customHeight="1">
-      <c r="A31" s="29" t="inlineStr">
+    <row r="31" ht="30" customHeight="1">
+      <c r="A31" s="34" t="inlineStr">
         <is>
           <t>1. Continue current strategy - proven track record of consistent returns</t>
         </is>
       </c>
-      <c r="B31" s="31" t="n"/>
-      <c r="C31" s="31" t="n"/>
-      <c r="D31" s="31" t="n"/>
-      <c r="E31" s="31" t="n"/>
-    </row>
-    <row r="32" ht="20" customHeight="1">
-      <c r="A32" s="29" t="inlineStr">
+      <c r="B31" s="23" t="n"/>
+      <c r="C31" s="23" t="n"/>
+      <c r="D31" s="23" t="n"/>
+      <c r="E31" s="24" t="n"/>
+    </row>
+    <row r="32" ht="30" customHeight="1">
+      <c r="A32" s="34" t="inlineStr">
         <is>
           <t>2. Maintain dividend reinvestment for compound growth acceleration</t>
         </is>
       </c>
-      <c r="B32" s="31" t="n"/>
-      <c r="C32" s="31" t="n"/>
-      <c r="D32" s="31" t="n"/>
-      <c r="E32" s="31" t="n"/>
-    </row>
-    <row r="33" ht="20" customHeight="1">
-      <c r="A33" s="29" t="inlineStr">
+      <c r="B32" s="23" t="n"/>
+      <c r="C32" s="23" t="n"/>
+      <c r="D32" s="23" t="n"/>
+      <c r="E32" s="24" t="n"/>
+    </row>
+    <row r="33" ht="30" customHeight="1">
+      <c r="A33" s="34" t="inlineStr">
         <is>
           <t>3. Review quarterly performance against benchmarks (S&amp;P 500, Russell 2000)</t>
         </is>
       </c>
-      <c r="B33" s="31" t="n"/>
-      <c r="C33" s="31" t="n"/>
-      <c r="D33" s="31" t="n"/>
-      <c r="E33" s="31" t="n"/>
-    </row>
-    <row r="34" ht="20" customHeight="1">
-      <c r="A34" s="29" t="inlineStr">
+      <c r="B33" s="23" t="n"/>
+      <c r="C33" s="23" t="n"/>
+      <c r="D33" s="23" t="n"/>
+      <c r="E33" s="24" t="n"/>
+    </row>
+    <row r="34" ht="30" customHeight="1">
+      <c r="A34" s="34" t="inlineStr">
         <is>
           <t>4. Rebalance portfolio if allocation drifts &gt;10% from target</t>
         </is>
       </c>
-      <c r="B34" s="31" t="n"/>
-      <c r="C34" s="31" t="n"/>
-      <c r="D34" s="31" t="n"/>
-      <c r="E34" s="31" t="n"/>
-    </row>
-    <row r="35" ht="20" customHeight="1">
-      <c r="A35" s="29" t="inlineStr">
+      <c r="B34" s="23" t="n"/>
+      <c r="C34" s="23" t="n"/>
+      <c r="D34" s="23" t="n"/>
+      <c r="E34" s="24" t="n"/>
+    </row>
+    <row r="35" ht="30" customHeight="1">
+      <c r="A35" s="34" t="inlineStr">
         <is>
           <t>5. Evaluate tax-loss harvesting opportunities in down months</t>
         </is>
       </c>
-      <c r="B35" s="31" t="n"/>
-      <c r="C35" s="31" t="n"/>
-      <c r="D35" s="31" t="n"/>
-      <c r="E35" s="31" t="n"/>
-    </row>
-    <row r="36" ht="20" customHeight="1">
-      <c r="A36" s="29" t="inlineStr">
+      <c r="B35" s="23" t="n"/>
+      <c r="C35" s="23" t="n"/>
+      <c r="D35" s="23" t="n"/>
+      <c r="E35" s="24" t="n"/>
+    </row>
+    <row r="36" ht="30" customHeight="1">
+      <c r="A36" s="34" t="inlineStr">
         <is>
           <t>6. Monitor market conditions for tactical adjustments if warranted</t>
         </is>
       </c>
-      <c r="B36" s="31" t="n"/>
-      <c r="C36" s="31" t="n"/>
-      <c r="D36" s="31" t="n"/>
-      <c r="E36" s="31" t="n"/>
+      <c r="B36" s="23" t="n"/>
+      <c r="C36" s="23" t="n"/>
+      <c r="D36" s="23" t="n"/>
+      <c r="E36" s="24" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="21">
     <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A36:E36"/>
     <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A32:E32"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Portfolio report_Investment_07.02.2026.xlsx
+++ b/Portfolio report_Investment_07.02.2026.xlsx
@@ -215,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -299,6 +299,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -674,11 +680,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="95" customWidth="1" min="1" max="1"/>
-    <col width="2" customWidth="1" min="2" max="2"/>
-    <col width="2" customWidth="1" min="3" max="3"/>
-    <col width="2" customWidth="1" min="4" max="4"/>
-    <col width="2" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -878,7 +884,7 @@
       <c r="A16" s="12" t="n"/>
     </row>
     <row r="17" ht="25" customHeight="1">
-      <c r="A17" s="32" t="inlineStr">
+      <c r="A17" s="35" t="inlineStr">
         <is>
           <t>TRADING ACTIVITY SUMMARY</t>
         </is>
@@ -889,7 +895,7 @@
       <c r="E17" s="24" t="n"/>
     </row>
     <row r="18" ht="25" customHeight="1">
-      <c r="A18" s="32" t="inlineStr">
+      <c r="A18" s="35" t="inlineStr">
         <is>
           <t>Total Trades</t>
         </is>
@@ -900,7 +906,7 @@
       <c r="E18" s="24" t="n"/>
     </row>
     <row r="19" ht="25" customHeight="1">
-      <c r="A19" s="32" t="inlineStr">
+      <c r="A19" s="35" t="inlineStr">
         <is>
           <t>Buy Transactions</t>
         </is>
@@ -911,7 +917,7 @@
       <c r="E19" s="24" t="n"/>
     </row>
     <row r="20" ht="25" customHeight="1">
-      <c r="A20" s="32" t="inlineStr">
+      <c r="A20" s="35" t="inlineStr">
         <is>
           <t>Sell Transactions</t>
         </is>
@@ -1003,7 +1009,7 @@
     </row>
     <row r="29" ht="8" customHeight="1"/>
     <row r="30" ht="22" customHeight="1">
-      <c r="A30" s="12" t="inlineStr">
+      <c r="A30" s="36" t="inlineStr">
         <is>
           <t>ACTION ITEMS &amp; STRATEGY</t>
         </is>

--- a/Portfolio report_Investment_07.02.2026.xlsx
+++ b/Portfolio report_Investment_07.02.2026.xlsx
@@ -900,10 +900,11 @@
           <t>Total Trades</t>
         </is>
       </c>
-      <c r="B18" s="23" t="n"/>
-      <c r="C18" s="23" t="n"/>
-      <c r="D18" s="23" t="n"/>
-      <c r="E18" s="24" t="n"/>
+      <c r="B18" s="27" t="inlineStr">
+        <is>
+          <t>20 per month average</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="25" customHeight="1">
       <c r="A19" s="35" t="inlineStr">
@@ -911,10 +912,11 @@
           <t>Buy Transactions</t>
         </is>
       </c>
-      <c r="B19" s="23" t="n"/>
-      <c r="C19" s="23" t="n"/>
-      <c r="D19" s="23" t="n"/>
-      <c r="E19" s="24" t="n"/>
+      <c r="B19" s="27" t="inlineStr">
+        <is>
+          <t>12 average</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="25" customHeight="1">
       <c r="A20" s="35" t="inlineStr">
@@ -922,10 +924,11 @@
           <t>Sell Transactions</t>
         </is>
       </c>
-      <c r="B20" s="23" t="n"/>
-      <c r="C20" s="23" t="n"/>
-      <c r="D20" s="23" t="n"/>
-      <c r="E20" s="24" t="n"/>
+      <c r="B20" s="27" t="inlineStr">
+        <is>
+          <t>11 average</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="8" customHeight="1">
       <c r="A21" s="19" t="n"/>
@@ -1082,7 +1085,7 @@
       <c r="E36" s="24" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="18">
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A24:E24"/>
@@ -1090,7 +1093,6 @@
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A18:E18"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="A33:E33"/>
@@ -1100,9 +1102,7 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A20:E20"/>
     <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A19:E19"/>
     <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Portfolio report_Investment_07.02.2026.xlsx
+++ b/Portfolio report_Investment_07.02.2026.xlsx
@@ -626,9 +626,6 @@
               </a:ln>
             </spPr>
           </marker>
-          <dLbls>
-            <showVal val="1"/>
-          </dLbls>
           <cat>
             <strRef>
               <f>'Executive Summary'!$G$4:$G$15</f>
@@ -720,14 +717,6 @@
           </val>
           <smooth val="1"/>
         </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
         <smooth val="0"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -863,9 +852,6 @@
             </a:ln>
           </spPr>
           <invertIfNegative val="1"/>
-          <dLbls>
-            <showVal val="1"/>
-          </dLbls>
           <cat>
             <strRef>
               <f>'Executive Summary'!$J$4:$J$15</f>
@@ -955,15 +941,16 @@
               </numCache>
             </numRef>
           </val>
+          <dLbls>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <dLbl>
+              <idx val="10"/>
+              <showVal val="1"/>
+            </dLbl>
+          </dLbls>
         </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -1314,6 +1301,242 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Portfolio Growth - 12 Month Progression</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!H3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="30000">
+              <a:solidFill>
+                <a:srgbClr val="1F4788"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$G$4:$G$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$H$4:$H$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Portfolio Value ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Monthly Returns - 12 Month Performance</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!K3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$J$4:$J$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$K$4:$K$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Profit ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="10"/>
   <chart>
     <title>
@@ -1434,7 +1657,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="10"/>
   <chart>
@@ -1679,6 +1902,50 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="7" name="Chart 7"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="8" name="Chart 8"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>

--- a/Portfolio report_Investment_07.02.2026.xlsx
+++ b/Portfolio report_Investment_07.02.2026.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -104,8 +104,13 @@
       <color rgb="00FFFFFF"/>
       <sz val="14"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="9"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="24">
     <fill>
       <patternFill/>
     </fill>
@@ -224,6 +229,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="00F1DCDB"/>
         <bgColor rgb="00F1DCDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00595959"/>
+        <bgColor rgb="00595959"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C5504F"/>
+        <bgColor rgb="00C5504F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0070AD47"/>
+        <bgColor rgb="0070AD47"/>
       </patternFill>
     </fill>
   </fills>
@@ -371,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
@@ -493,6 +516,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,6 +828,119 @@
       <legendPos val="r"/>
       <overlay val="0"/>
     </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Monthly Returns - 12 Month Performance</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!K3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$J$4:$J$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$K$4:$K$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Profit ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -1537,7 +1682,6 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -1659,7 +1803,6 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -1767,6 +1910,125 @@
     <legend>
       <legendPos val="b"/>
     </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Portfolio Growth - 12 Month Progression</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!H3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="30000">
+              <a:solidFill>
+                <a:srgbClr val="1F4788"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$G$4:$G$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$H$4:$H$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Portfolio Value ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -1946,6 +2208,50 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="9" name="Chart 9"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="10" name="Chart 10"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3231,46 +3537,70 @@
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" s="17">
-      <c r="A9" s="39" t="inlineStr">
-        <is>
-          <t>Total profit, %</t>
-        </is>
-      </c>
-      <c r="B9" s="42" t="n">
-        <v>-5.79</v>
-      </c>
-      <c r="C9" s="42" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D9" s="42" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="E9" s="42" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F9" s="42" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="G9" s="42" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="H9" s="42" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="I9" s="42" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="J9" s="42" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="K9" s="42" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L9" s="42" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="M9" s="42" t="n">
-        <v>0.84</v>
+      <c r="A9" s="46" t="inlineStr">
+        <is>
+          <t>Win/Loss Indicator</t>
+        </is>
+      </c>
+      <c r="B9" s="47" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C9" s="48" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D9" s="48" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E9" s="48" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F9" s="48" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G9" s="47" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="H9" s="48" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="I9" s="48" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="J9" s="48" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="K9" s="48" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="L9" s="48" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="M9" s="48" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" s="17">

--- a/Portfolio report_Investment_07.02.2026.xlsx
+++ b/Portfolio report_Investment_07.02.2026.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -108,6 +108,16 @@
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="9"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="001F4788"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="24">
@@ -250,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -390,11 +400,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="004472C4"/>
+      </left>
+      <right style="thin">
+        <color rgb="004472C4"/>
+      </right>
+      <top style="thin">
+        <color rgb="004472C4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="004472C4"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="004472C4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="004472C4"/>
+      </right>
+      <top style="thin">
+        <color rgb="004472C4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="004472C4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="004472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="004472C4"/>
+      </right>
+      <top style="thin">
+        <color rgb="004472C4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="004472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
@@ -526,6 +594,17 @@
     <xf numFmtId="0" fontId="11" fillId="23" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,6 +914,237 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Monthly Returns - 12 Month Performance</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!K3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$J$4:$J$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$K$4:$K$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Profit ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Portfolio Growth - 12 Month Progression</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!H3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="30000">
+              <a:solidFill>
+                <a:srgbClr val="1F4788"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$G$4:$G$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$H$4:$H$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Portfolio Value ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="10"/>
   <chart>
@@ -1918,7 +2228,6 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -2257,6 +2566,50 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="11" name="Chart 11"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="12" name="Chart 12"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -3289,7 +3642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:M1"/>
@@ -4070,7 +4423,11 @@
       <c r="A27" s="21" t="n"/>
     </row>
     <row r="28" ht="20" customHeight="1" s="17">
-      <c r="A28" s="41" t="n"/>
+      <c r="A28" s="49" t="inlineStr">
+        <is>
+          <t>Performance Summary</t>
+        </is>
+      </c>
       <c r="B28" s="19" t="n"/>
       <c r="C28" s="19" t="n"/>
       <c r="D28" s="19" t="n"/>
@@ -4085,72 +4442,168 @@
       <c r="M28" s="20" t="n"/>
     </row>
     <row r="29" ht="18" customHeight="1" s="17">
-      <c r="A29" s="39" t="n"/>
-      <c r="B29" s="45" t="n"/>
-      <c r="C29" s="45" t="n"/>
-      <c r="D29" s="45" t="n"/>
-      <c r="E29" s="45" t="n"/>
-      <c r="F29" s="45" t="n"/>
-      <c r="G29" s="45" t="n"/>
-      <c r="H29" s="45" t="n"/>
-      <c r="I29" s="45" t="n"/>
-      <c r="J29" s="45" t="n"/>
-      <c r="K29" s="45" t="n"/>
-      <c r="L29" s="45" t="n"/>
-      <c r="M29" s="45" t="n"/>
+      <c r="A29" s="50" t="inlineStr">
+        <is>
+          <t>Win Rate</t>
+        </is>
+      </c>
+      <c r="B29" s="51" t="inlineStr">
+        <is>
+          <t>83.3%</t>
+        </is>
+      </c>
+      <c r="C29" s="52" t="n"/>
+      <c r="D29" s="52" t="n"/>
+      <c r="E29" s="52" t="n"/>
+      <c r="F29" s="52" t="n"/>
+      <c r="G29" s="52" t="n"/>
+      <c r="H29" s="52" t="n"/>
+      <c r="I29" s="52" t="n"/>
+      <c r="J29" s="52" t="n"/>
+      <c r="K29" s="52" t="n"/>
+      <c r="L29" s="52" t="n"/>
+      <c r="M29" s="53" t="n"/>
     </row>
     <row r="30" ht="18" customHeight="1" s="17">
-      <c r="A30" s="39" t="n"/>
-      <c r="B30" s="45" t="n"/>
-      <c r="C30" s="45" t="n"/>
-      <c r="D30" s="45" t="n"/>
-      <c r="E30" s="45" t="n"/>
-      <c r="F30" s="45" t="n"/>
-      <c r="G30" s="45" t="n"/>
-      <c r="H30" s="45" t="n"/>
-      <c r="I30" s="45" t="n"/>
-      <c r="J30" s="45" t="n"/>
-      <c r="K30" s="45" t="n"/>
-      <c r="L30" s="45" t="n"/>
-      <c r="M30" s="45" t="n"/>
+      <c r="A30" s="50" t="inlineStr">
+        <is>
+          <t>Wins / Losses</t>
+        </is>
+      </c>
+      <c r="B30" s="51" t="inlineStr">
+        <is>
+          <t>10 / 2</t>
+        </is>
+      </c>
+      <c r="C30" s="52" t="n"/>
+      <c r="D30" s="52" t="n"/>
+      <c r="E30" s="52" t="n"/>
+      <c r="F30" s="52" t="n"/>
+      <c r="G30" s="52" t="n"/>
+      <c r="H30" s="52" t="n"/>
+      <c r="I30" s="52" t="n"/>
+      <c r="J30" s="52" t="n"/>
+      <c r="K30" s="52" t="n"/>
+      <c r="L30" s="52" t="n"/>
+      <c r="M30" s="53" t="n"/>
     </row>
     <row r="31" ht="18" customHeight="1" s="17">
-      <c r="A31" s="39" t="n"/>
-      <c r="B31" s="45" t="n"/>
-      <c r="C31" s="45" t="n"/>
-      <c r="D31" s="45" t="n"/>
-      <c r="E31" s="45" t="n"/>
-      <c r="F31" s="45" t="n"/>
-      <c r="G31" s="45" t="n"/>
-      <c r="H31" s="45" t="n"/>
-      <c r="I31" s="45" t="n"/>
-      <c r="J31" s="45" t="n"/>
-      <c r="K31" s="45" t="n"/>
-      <c r="L31" s="45" t="n"/>
-      <c r="M31" s="45" t="n"/>
+      <c r="A31" s="50" t="inlineStr">
+        <is>
+          <t>Avg Profit</t>
+        </is>
+      </c>
+      <c r="B31" s="51" t="inlineStr">
+        <is>
+          <t>$1,153.82</t>
+        </is>
+      </c>
+      <c r="C31" s="52" t="n"/>
+      <c r="D31" s="52" t="n"/>
+      <c r="E31" s="52" t="n"/>
+      <c r="F31" s="52" t="n"/>
+      <c r="G31" s="52" t="n"/>
+      <c r="H31" s="52" t="n"/>
+      <c r="I31" s="52" t="n"/>
+      <c r="J31" s="52" t="n"/>
+      <c r="K31" s="52" t="n"/>
+      <c r="L31" s="52" t="n"/>
+      <c r="M31" s="53" t="n"/>
     </row>
     <row r="32" ht="18" customHeight="1" s="17">
-      <c r="A32" s="39" t="n"/>
-      <c r="B32" s="45" t="n"/>
-      <c r="C32" s="45" t="n"/>
-      <c r="D32" s="45" t="n"/>
-      <c r="E32" s="45" t="n"/>
-      <c r="F32" s="45" t="n"/>
-      <c r="G32" s="45" t="n"/>
-      <c r="H32" s="45" t="n"/>
-      <c r="I32" s="45" t="n"/>
-      <c r="J32" s="45" t="n"/>
-      <c r="K32" s="45" t="n"/>
-      <c r="L32" s="45" t="n"/>
-      <c r="M32" s="45" t="n"/>
+      <c r="A32" s="50" t="inlineStr">
+        <is>
+          <t>Avg Loss</t>
+        </is>
+      </c>
+      <c r="B32" s="51" t="inlineStr">
+        <is>
+          <t>$-392.96</t>
+        </is>
+      </c>
+      <c r="C32" s="52" t="n"/>
+      <c r="D32" s="52" t="n"/>
+      <c r="E32" s="52" t="n"/>
+      <c r="F32" s="52" t="n"/>
+      <c r="G32" s="52" t="n"/>
+      <c r="H32" s="52" t="n"/>
+      <c r="I32" s="52" t="n"/>
+      <c r="J32" s="52" t="n"/>
+      <c r="K32" s="52" t="n"/>
+      <c r="L32" s="52" t="n"/>
+      <c r="M32" s="53" t="n"/>
+    </row>
+    <row r="33" ht="18" customHeight="1" s="17">
+      <c r="A33" s="50" t="inlineStr">
+        <is>
+          <t>Profit Factor</t>
+        </is>
+      </c>
+      <c r="B33" s="51" t="inlineStr">
+        <is>
+          <t>14.68</t>
+        </is>
+      </c>
+      <c r="C33" s="52" t="n"/>
+      <c r="D33" s="52" t="n"/>
+      <c r="E33" s="52" t="n"/>
+      <c r="F33" s="52" t="n"/>
+      <c r="G33" s="52" t="n"/>
+      <c r="H33" s="52" t="n"/>
+      <c r="I33" s="52" t="n"/>
+      <c r="J33" s="52" t="n"/>
+      <c r="K33" s="52" t="n"/>
+      <c r="L33" s="52" t="n"/>
+      <c r="M33" s="53" t="n"/>
+    </row>
+    <row r="34" ht="18" customHeight="1" s="17">
+      <c r="A34" s="50" t="inlineStr">
+        <is>
+          <t>Largest Win</t>
+        </is>
+      </c>
+      <c r="B34" s="51" t="inlineStr">
+        <is>
+          <t>$3,113.81</t>
+        </is>
+      </c>
+      <c r="C34" s="52" t="n"/>
+      <c r="D34" s="52" t="n"/>
+      <c r="E34" s="52" t="n"/>
+      <c r="F34" s="52" t="n"/>
+      <c r="G34" s="52" t="n"/>
+      <c r="H34" s="52" t="n"/>
+      <c r="I34" s="52" t="n"/>
+      <c r="J34" s="52" t="n"/>
+      <c r="K34" s="52" t="n"/>
+      <c r="L34" s="52" t="n"/>
+      <c r="M34" s="53" t="n"/>
+    </row>
+    <row r="35" ht="18" customHeight="1" s="17">
+      <c r="A35" s="50" t="inlineStr">
+        <is>
+          <t>Largest Loss</t>
+        </is>
+      </c>
+      <c r="B35" s="51" t="inlineStr">
+        <is>
+          <t>$-766.35</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
     <mergeCell ref="A14:M14"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B33:M33"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A27:M27"/>
     <mergeCell ref="A22:M22"/>
+    <mergeCell ref="B31:M31"/>
+    <mergeCell ref="B32:M32"/>
     <mergeCell ref="A7:M7"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B29:M29"/>
     <mergeCell ref="A28:M28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
